--- a/examples/data/20220720 ITR Tool Test Data.xlsx
+++ b/examples/data/20220720 ITR Tool Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/ITR-MichaelTiemannOSC/examples/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/GitHub/MichaelTiemannOSC/ITR/examples/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40304207-EE3A-B144-9D70-279AF4B116AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7821A1BB-2BC3-F44A-A839-152C3243ADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="77140" windowHeight="31860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="77140" windowHeight="31860" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me " sheetId="1" r:id="rId1"/>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="394">
   <si>
     <t>company_name</t>
   </si>
@@ -2509,6 +2509,9 @@
   </si>
   <si>
     <t>Test4</t>
+  </si>
+  <si>
+    <t>investment_value [USD]</t>
   </si>
 </sst>
 </file>
@@ -2848,7 +2851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2857,7 +2860,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2880,10 +2883,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2892,14 +2894,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2909,7 +2909,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2938,70 +2938,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3014,10 +3002,8 @@
     <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
@@ -4257,7 +4243,7 @@
   </sheetPr>
   <dimension ref="A1:AZ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
@@ -5064,26 +5050,18 @@
     </row>
     <row r="7" spans="1:52">
       <c r="E7"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
     </row>
     <row r="8" spans="1:52">
       <c r="E8"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:52">
       <c r="E9"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:52">
       <c r="E10"/>
     </row>
     <row r="11" spans="1:52">
       <c r="E11"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -6226,34 +6204,34 @@
       <c r="P9" t="s">
         <v>87</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9">
         <v>625072</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9">
         <v>581703</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9">
         <v>678403</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9">
         <v>678967</v>
       </c>
-      <c r="V9" s="23">
+      <c r="V9">
         <v>699713</v>
       </c>
-      <c r="Y9" s="23">
+      <c r="Y9">
         <v>510911</v>
       </c>
-      <c r="Z9" s="23">
+      <c r="Z9">
         <v>538622</v>
       </c>
-      <c r="AA9" s="23">
+      <c r="AA9">
         <v>354095</v>
       </c>
-      <c r="AB9" s="23">
+      <c r="AB9">
         <v>130090</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9">
         <v>134849</v>
       </c>
       <c r="AE9" s="19" t="str">
@@ -6284,38 +6262,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM9" s="23">
+      <c r="AM9">
         <v>71714741</v>
       </c>
-      <c r="AN9" s="23">
+      <c r="AN9">
         <v>73093077</v>
       </c>
-      <c r="AO9" s="23">
+      <c r="AO9">
         <v>132520346</v>
       </c>
-      <c r="AP9" s="23">
+      <c r="AP9">
         <v>117682832</v>
       </c>
-      <c r="AQ9" s="23">
+      <c r="AQ9">
         <v>121705368</v>
       </c>
-      <c r="AT9" s="24">
+      <c r="AT9" s="23">
         <f>AM9*0.85/128</f>
         <v>476230.70195312501</v>
       </c>
-      <c r="AU9" s="24">
+      <c r="AU9" s="23">
         <f>AN9*0.85/127.5</f>
         <v>487287.18</v>
       </c>
-      <c r="AV9" s="24">
+      <c r="AV9" s="23">
         <f>AO9*0.85/127</f>
         <v>886947.19763779524</v>
       </c>
-      <c r="AW9" s="24">
+      <c r="AW9" s="23">
         <f>AP9*0.85/99.1</f>
         <v>1009388.569122099</v>
       </c>
-      <c r="AX9" s="24">
+      <c r="AX9" s="23">
         <f>AQ9*0.85/115.9</f>
         <v>892576.03796376183</v>
       </c>
@@ -6425,30 +6403,30 @@
         <v>35.6</v>
       </c>
       <c r="AK10" s="19"/>
-      <c r="AM10" s="94">
+      <c r="AM10" s="84">
         <f>AT10*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AN10" s="94">
+      <c r="AN10" s="84">
         <f t="shared" ref="AN10:AQ10" si="1">AU10*0.43/5.712</f>
         <v>946.27100840336141</v>
       </c>
-      <c r="AO10" s="94">
+      <c r="AO10" s="84">
         <f t="shared" si="1"/>
         <v>946.27100840336141</v>
       </c>
-      <c r="AP10" s="94">
+      <c r="AP10" s="84">
         <f t="shared" si="1"/>
         <v>822.359943977591</v>
       </c>
-      <c r="AQ10" s="94">
+      <c r="AQ10" s="84">
         <f t="shared" si="1"/>
         <v>834.55532212885146</v>
       </c>
-      <c r="AT10" s="25">
+      <c r="AT10" s="24">
         <v>12570</v>
       </c>
-      <c r="AU10" s="25">
+      <c r="AU10" s="24">
         <v>12570</v>
       </c>
       <c r="AV10">
@@ -6504,10 +6482,10 @@
       <c r="N11">
         <v>3187800000</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" t="s">
         <v>99</v>
       </c>
       <c r="Q11">
@@ -6615,10 +6593,10 @@
       <c r="N12" s="22">
         <v>239535000000</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" t="s">
         <v>94</v>
       </c>
       <c r="R12">
@@ -6692,15 +6670,15 @@
       <c r="AQ12">
         <v>611</v>
       </c>
-      <c r="AT12" s="97">
+      <c r="AT12" s="86">
         <f>9100*AM12/$AP12</f>
         <v>9568.2675814751292</v>
       </c>
-      <c r="AU12" s="97">
+      <c r="AU12" s="86">
         <f>9100*AN12/$AP12</f>
         <v>9802.4013722126929</v>
       </c>
-      <c r="AV12" s="97">
+      <c r="AV12" s="86">
         <f>9100*AO12/$AP12</f>
         <v>9974.0994854202399</v>
       </c>
@@ -7006,10 +6984,10 @@
       <c r="N15">
         <v>3758771000</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" t="s">
         <v>99</v>
       </c>
       <c r="Q15">
@@ -8479,40 +8457,40 @@
       <c r="N27">
         <v>124977000000</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="P27" t="s">
         <v>81</v>
       </c>
       <c r="Q27">
         <v>9723000</v>
       </c>
-      <c r="R27" s="26">
+      <c r="R27" s="25">
         <v>9532000</v>
       </c>
-      <c r="S27" s="26">
+      <c r="S27" s="25">
         <v>8841000</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="25">
         <v>8566000</v>
       </c>
-      <c r="U27" s="26">
+      <c r="U27" s="25">
         <v>8493000</v>
       </c>
       <c r="X27">
         <v>7061000</v>
       </c>
-      <c r="Y27" s="26">
+      <c r="Y27" s="25">
         <v>17693000</v>
       </c>
-      <c r="Z27" s="26">
+      <c r="Z27" s="25">
         <v>21022000</v>
       </c>
-      <c r="AA27" s="26">
+      <c r="AA27" s="25">
         <v>18864000</v>
       </c>
-      <c r="AB27" s="26">
+      <c r="AB27" s="25">
         <v>13720000</v>
       </c>
       <c r="AE27" s="19">
@@ -8546,15 +8524,15 @@
       <c r="AS27" s="20">
         <v>186212000</v>
       </c>
-      <c r="AT27" s="27">
+      <c r="AT27" s="26">
         <f>195307000+51595000</f>
         <v>246902000</v>
       </c>
-      <c r="AU27" s="26">
+      <c r="AU27" s="25">
         <f>194224000+59050000</f>
         <v>253274000</v>
       </c>
-      <c r="AV27" s="28">
+      <c r="AV27" s="27">
         <f>189463000+69708000</f>
         <v>259171000</v>
       </c>
@@ -8606,46 +8584,46 @@
       <c r="N28" s="22">
         <v>332750000000</v>
       </c>
-      <c r="O28" s="23" t="s">
+      <c r="O28" t="s">
         <v>64</v>
       </c>
-      <c r="P28" s="95" t="s">
+      <c r="P28" t="s">
         <v>388</v>
       </c>
       <c r="Q28">
         <v>117</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="25">
         <v>115</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="25">
         <v>116</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="25">
         <v>111</v>
       </c>
-      <c r="U28" s="26">
+      <c r="U28" s="25">
         <v>105</v>
       </c>
-      <c r="V28" s="96">
+      <c r="V28" s="85">
         <v>103</v>
       </c>
       <c r="X28">
         <v>8</v>
       </c>
-      <c r="Y28" s="26">
+      <c r="Y28" s="25">
         <v>8</v>
       </c>
-      <c r="Z28" s="26">
+      <c r="Z28" s="25">
         <v>8</v>
       </c>
-      <c r="AA28" s="26">
+      <c r="AA28" s="25">
         <v>8</v>
       </c>
-      <c r="AB28" s="26">
+      <c r="AB28" s="25">
         <v>7</v>
       </c>
-      <c r="AC28" s="96">
+      <c r="AC28" s="85">
         <v>6</v>
       </c>
       <c r="AE28" s="19">
@@ -8676,51 +8654,51 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AL28" s="94">
+      <c r="AL28" s="84">
         <f t="shared" ref="AL28:AQ28" si="6">0.43*AS28/1000</f>
         <v>636.11834999999996</v>
       </c>
-      <c r="AM28" s="94">
+      <c r="AM28" s="84">
         <f t="shared" si="6"/>
         <v>625.44574999999998</v>
       </c>
-      <c r="AN28" s="94">
+      <c r="AN28" s="84">
         <f t="shared" si="6"/>
         <v>601.58934999999997</v>
       </c>
-      <c r="AO28" s="94">
+      <c r="AO28" s="84">
         <f t="shared" si="6"/>
         <v>620.26639999999998</v>
       </c>
-      <c r="AP28" s="94">
+      <c r="AP28" s="84">
         <f t="shared" si="6"/>
         <v>590.28895</v>
       </c>
-      <c r="AQ28" s="94">
+      <c r="AQ28" s="84">
         <f t="shared" si="6"/>
         <v>582.59839999999997</v>
       </c>
-      <c r="AS28" s="25">
+      <c r="AS28" s="24">
         <f>4053*365</f>
         <v>1479345</v>
       </c>
-      <c r="AT28" s="25">
+      <c r="AT28" s="24">
         <f>3985*365</f>
         <v>1454525</v>
       </c>
-      <c r="AU28" s="25">
+      <c r="AU28" s="24">
         <f>3833*365</f>
         <v>1399045</v>
       </c>
-      <c r="AV28" s="25">
+      <c r="AV28" s="24">
         <f>3952*365</f>
         <v>1442480</v>
       </c>
-      <c r="AW28" s="25">
+      <c r="AW28" s="24">
         <f>3761*365</f>
         <v>1372765</v>
       </c>
-      <c r="AX28" s="25">
+      <c r="AX28" s="24">
         <f>3712*365</f>
         <v>1354880</v>
       </c>
@@ -8766,10 +8744,10 @@
       <c r="N29">
         <v>42301000000</v>
       </c>
-      <c r="O29" s="23" t="s">
+      <c r="O29" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="23" t="s">
+      <c r="P29" t="s">
         <v>81</v>
       </c>
       <c r="R29" s="20">
@@ -8879,14 +8857,14 @@
       <c r="N30" s="22">
         <v>257035000000</v>
       </c>
-      <c r="O30" s="23" t="s">
+      <c r="O30" t="s">
         <v>139</v>
       </c>
-      <c r="P30" s="23" t="s">
+      <c r="P30" t="s">
         <v>161</v>
       </c>
       <c r="R30" s="20"/>
-      <c r="S30" s="23">
+      <c r="S30">
         <v>1442.963</v>
       </c>
       <c r="T30" s="20">
@@ -8899,13 +8877,13 @@
         <v>910</v>
       </c>
       <c r="Y30" s="20"/>
-      <c r="Z30" s="23">
+      <c r="Z30">
         <v>3219.7159999999999</v>
       </c>
-      <c r="AA30" s="23">
+      <c r="AA30">
         <v>3040.2930000000001</v>
       </c>
-      <c r="AB30" s="23">
+      <c r="AB30">
         <v>2473.2730000000001</v>
       </c>
       <c r="AC30">
@@ -8939,7 +8917,7 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AN30" s="23">
+      <c r="AN30">
         <v>398915.81</v>
       </c>
       <c r="AO30">
@@ -8948,20 +8926,20 @@
       <c r="AP30">
         <v>349281.99200000003</v>
       </c>
-      <c r="AQ30" s="25">
+      <c r="AQ30" s="24">
         <v>349281.99200000003</v>
       </c>
       <c r="AT30" s="20"/>
       <c r="AU30" s="20"/>
-      <c r="AV30" s="24">
+      <c r="AV30" s="23">
         <f>AO30*0.7/(309/1.6)</f>
         <v>1577.2225584466019</v>
       </c>
-      <c r="AW30" s="24">
+      <c r="AW30" s="23">
         <f>AP30*0.7/(301/1.6)</f>
         <v>1299.6539237209302</v>
       </c>
-      <c r="AX30" s="24">
+      <c r="AX30" s="23">
         <f>AQ30*0.7/(289/1.6)</f>
         <v>1353.6187925259514</v>
       </c>
@@ -9008,10 +8986,10 @@
       <c r="N31">
         <v>40960299959.761497</v>
       </c>
-      <c r="O31" s="23" t="s">
+      <c r="O31" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="23" t="s">
+      <c r="P31" t="s">
         <v>81</v>
       </c>
       <c r="Q31">
@@ -9138,33 +9116,33 @@
       <c r="N32">
         <v>235194000000</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O32" t="s">
         <v>58</v>
       </c>
-      <c r="P32" s="23" t="s">
+      <c r="P32" t="s">
         <v>387</v>
       </c>
       <c r="R32" s="20"/>
       <c r="S32" s="20"/>
-      <c r="T32" s="23">
+      <c r="T32">
         <v>1589700</v>
       </c>
-      <c r="U32" s="23">
+      <c r="U32">
         <v>1214124</v>
       </c>
-      <c r="V32" s="23">
+      <c r="V32">
         <v>1252906</v>
       </c>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
-      <c r="AA32" s="23">
+      <c r="AA32">
         <v>3721875</v>
       </c>
-      <c r="AB32" s="23">
+      <c r="AB32">
         <v>2599822</v>
       </c>
-      <c r="AC32" s="23">
+      <c r="AC32">
         <v>2150694</v>
       </c>
       <c r="AE32" s="19" t="str">
@@ -9195,24 +9173,24 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="AO32" s="23">
+      <c r="AO32">
         <v>249384317</v>
       </c>
-      <c r="AP32" s="23">
+      <c r="AP32">
         <v>296411327</v>
       </c>
-      <c r="AQ32" s="29">
+      <c r="AQ32" s="24">
         <v>296411327</v>
       </c>
-      <c r="AV32" s="24">
+      <c r="AV32" s="23">
         <f>AO32*0.85/293</f>
         <v>723469.86160409555</v>
       </c>
-      <c r="AW32" s="24">
+      <c r="AW32" s="23">
         <f>AP32*0.85/280</f>
         <v>899820.09982142854</v>
       </c>
-      <c r="AX32" s="24">
+      <c r="AX32" s="23">
         <f>AQ32*0.85/265</f>
         <v>950753.31301886786</v>
       </c>
@@ -9261,10 +9239,10 @@
       <c r="N33">
         <v>13397913513.7817</v>
       </c>
-      <c r="O33" s="23" t="s">
+      <c r="O33" t="s">
         <v>58</v>
       </c>
-      <c r="P33" s="23" t="s">
+      <c r="P33" t="s">
         <v>99</v>
       </c>
       <c r="Q33">
@@ -9513,10 +9491,10 @@
       <c r="N35">
         <v>141752000000</v>
       </c>
-      <c r="O35" s="23" t="s">
+      <c r="O35" t="s">
         <v>139</v>
       </c>
-      <c r="P35" s="23" t="s">
+      <c r="P35" t="s">
         <v>59</v>
       </c>
       <c r="R35">
@@ -9992,7 +9970,7 @@
       <c r="D39" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="28" t="s">
         <v>197</v>
       </c>
       <c r="F39" t="s">
@@ -10404,10 +10382,10 @@
       <c r="N42">
         <v>18344666000</v>
       </c>
-      <c r="O42" s="23" t="s">
+      <c r="O42" t="s">
         <v>58</v>
       </c>
-      <c r="P42" s="23" t="s">
+      <c r="P42" t="s">
         <v>99</v>
       </c>
       <c r="Q42">
@@ -10542,10 +10520,10 @@
       <c r="N43">
         <v>11024300000</v>
       </c>
-      <c r="O43" s="23" t="s">
+      <c r="O43" t="s">
         <v>58</v>
       </c>
-      <c r="P43" s="23" t="s">
+      <c r="P43" t="s">
         <v>81</v>
       </c>
       <c r="Q43" s="20">
@@ -10606,23 +10584,23 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AS43" s="31">
+      <c r="AS43" s="29">
         <f>27386150+337284+9430179+1135+58481+1356185+7487+317670+11610944</f>
         <v>50505515</v>
       </c>
-      <c r="AT43" s="31">
+      <c r="AT43" s="29">
         <f>31026112+283323+8304127+777+39306+1494512+5994+322935+11280342</f>
         <v>52757428</v>
       </c>
-      <c r="AU43" s="31">
+      <c r="AU43" s="29">
         <f>30506684+465026+10655278+4344+34495+1129399+5996+277653+11385085</f>
         <v>54463960</v>
       </c>
-      <c r="AV43" s="31">
+      <c r="AV43" s="29">
         <f>25067412+190452+9189864+4488+52483+1978567+7145+276564+11751484</f>
         <v>48518459</v>
       </c>
-      <c r="AW43" s="31">
+      <c r="AW43" s="29">
         <f>26746679+224926+7717598+760+62669+1795659+9332+269579+11586013</f>
         <v>48413215</v>
       </c>
@@ -10920,10 +10898,10 @@
       <c r="N46">
         <v>68553124892.036598</v>
       </c>
-      <c r="O46" s="23" t="s">
+      <c r="O46" t="s">
         <v>58</v>
       </c>
-      <c r="P46" s="23" t="s">
+      <c r="P46" t="s">
         <v>99</v>
       </c>
       <c r="Q46">
@@ -11608,19 +11586,19 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AN51" s="94">
+      <c r="AN51" s="84">
         <f>AU51*0.43</f>
         <v>3751.105</v>
       </c>
-      <c r="AO51" s="94">
+      <c r="AO51" s="84">
         <f t="shared" ref="AO51:AQ51" si="9">AV51*0.43</f>
         <v>3625.5450000000001</v>
       </c>
-      <c r="AP51" s="94">
+      <c r="AP51" s="84">
         <f t="shared" si="9"/>
         <v>3390.1200000000003</v>
       </c>
-      <c r="AQ51" s="94">
+      <c r="AQ51" s="84">
         <f t="shared" si="9"/>
         <v>3374.4249999999997</v>
       </c>
@@ -11876,7 +11854,7 @@
         <v>68</v>
       </c>
       <c r="AK53" s="19"/>
-      <c r="AL53" s="86">
+      <c r="AL53" s="77">
         <f>186+87+1318+582+736</f>
         <v>2909</v>
       </c>
@@ -11900,7 +11878,7 @@
         <f>147+136+6+1010+380+630</f>
         <v>2309</v>
       </c>
-      <c r="AS53" s="86">
+      <c r="AS53" s="77">
         <v>21.44</v>
       </c>
       <c r="AT53">
@@ -12087,10 +12065,10 @@
       <c r="N55">
         <v>8275765000</v>
       </c>
-      <c r="O55" s="23" t="s">
+      <c r="O55" t="s">
         <v>58</v>
       </c>
-      <c r="P55" s="23" t="s">
+      <c r="P55" t="s">
         <v>99</v>
       </c>
       <c r="Q55">
@@ -12184,7 +12162,7 @@
       <c r="I56">
         <v>2019</v>
       </c>
-      <c r="J56" s="32">
+      <c r="J56" s="30">
         <v>50030000000</v>
       </c>
       <c r="K56">
@@ -12309,7 +12287,7 @@
       <c r="I57">
         <v>2019</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="31">
         <v>590000000</v>
       </c>
       <c r="K57">
@@ -12324,10 +12302,10 @@
       <c r="N57">
         <v>14842991000</v>
       </c>
-      <c r="O57" s="23" t="s">
+      <c r="O57" t="s">
         <v>58</v>
       </c>
-      <c r="P57" s="23" t="s">
+      <c r="P57" t="s">
         <v>99</v>
       </c>
       <c r="Q57">
@@ -12436,7 +12414,7 @@
       <c r="I58">
         <v>2019</v>
       </c>
-      <c r="J58" s="33">
+      <c r="J58" s="31">
         <v>352130000</v>
       </c>
       <c r="K58">
@@ -12451,10 +12429,10 @@
       <c r="N58">
         <v>12935533000</v>
       </c>
-      <c r="O58" s="23" t="s">
+      <c r="O58" t="s">
         <v>58</v>
       </c>
-      <c r="P58" s="23" t="s">
+      <c r="P58" t="s">
         <v>99</v>
       </c>
       <c r="Q58">
@@ -12563,7 +12541,7 @@
       <c r="I59" s="3">
         <v>44561</v>
       </c>
-      <c r="J59" s="34">
+      <c r="J59" s="22">
         <v>1061000000000</v>
       </c>
       <c r="K59" s="22">
@@ -12579,10 +12557,10 @@
       <c r="N59" s="22">
         <v>62131000000</v>
       </c>
-      <c r="O59" s="23" t="s">
+      <c r="O59" t="s">
         <v>139</v>
       </c>
-      <c r="P59" s="23" t="s">
+      <c r="P59" t="s">
         <v>87</v>
       </c>
       <c r="R59">
@@ -12739,10 +12717,10 @@
       <c r="N60">
         <v>1085200000</v>
       </c>
-      <c r="O60" s="23" t="s">
+      <c r="O60" t="s">
         <v>58</v>
       </c>
-      <c r="P60" s="23" t="s">
+      <c r="P60" t="s">
         <v>99</v>
       </c>
       <c r="Q60">
@@ -12865,10 +12843,10 @@
       <c r="N61" s="22">
         <v>484660000000</v>
       </c>
-      <c r="O61" s="23" t="s">
+      <c r="O61" t="s">
         <v>64</v>
       </c>
-      <c r="P61" s="23" t="s">
+      <c r="P61" t="s">
         <v>87</v>
       </c>
       <c r="S61">
@@ -12928,20 +12906,20 @@
       <c r="AP61">
         <v>341.35</v>
       </c>
-      <c r="AT61" s="24"/>
-      <c r="AU61" s="24">
+      <c r="AT61" s="23"/>
+      <c r="AU61" s="23">
         <f>AN61*0.85*1000/(150)</f>
         <v>2351.1566666666668</v>
       </c>
-      <c r="AV61" s="24">
+      <c r="AV61" s="23">
         <f>AO61*0.85*1000/(140)</f>
         <v>2416.0642857142852</v>
       </c>
-      <c r="AW61" s="24">
+      <c r="AW61" s="23">
         <f>AP61*0.85*1000/(130)</f>
         <v>2231.9038461538466</v>
       </c>
-      <c r="AX61" s="24"/>
+      <c r="AX61" s="23"/>
     </row>
     <row r="62" spans="1:50">
       <c r="A62" t="s">
@@ -12986,10 +12964,10 @@
       <c r="N62">
         <v>11608000000</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="O62" t="s">
         <v>58</v>
       </c>
-      <c r="P62" s="23" t="s">
+      <c r="P62" t="s">
         <v>99</v>
       </c>
       <c r="Q62">
@@ -13100,10 +13078,10 @@
       <c r="N63">
         <v>17111600000</v>
       </c>
-      <c r="O63" s="23" t="s">
+      <c r="O63" t="s">
         <v>139</v>
       </c>
-      <c r="P63" s="23" t="s">
+      <c r="P63" t="s">
         <v>272</v>
       </c>
       <c r="T63">
@@ -13796,26 +13774,18 @@
     </row>
     <row r="71" spans="1:49">
       <c r="E71"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
     </row>
     <row r="72" spans="1:49">
       <c r="E72"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
     </row>
     <row r="73" spans="1:49">
       <c r="E73"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
     </row>
     <row r="74" spans="1:49">
       <c r="E74"/>
     </row>
     <row r="75" spans="1:49">
       <c r="E75"/>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.511811023622047"/>
@@ -13843,10 +13813,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -13866,31 +13836,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>296</v>
       </c>
     </row>
@@ -13908,33 +13878,33 @@
         <f>'ITR input data'!D2</f>
         <v>FR</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <f>'ITR input data'!AE2/'ITR input data'!AS2</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K2" s="40" t="str">
+      <c r="K2" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2030</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>0.5</v>
       </c>
     </row>
@@ -13952,121 +13922,121 @@
         <f>'ITR input data'!D3</f>
         <v>FR</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
         <v>2016</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="38">
         <f>'ITR input data'!AE3/'ITR input data'!AS3</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K3" s="40" t="str">
+      <c r="K3" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
       <c r="L3">
         <v>2030</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>391</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="30" t="str">
+      <c r="D4" s="28" t="str">
         <f>'ITR input data'!D4</f>
         <v>FR</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="88">
         <v>2050</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="99">
+      <c r="H4" s="88">
         <v>2019</v>
       </c>
-      <c r="I4" s="99">
+      <c r="I4" s="88">
         <v>2016</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="89">
         <f>'ITR input data'!AE4/'ITR input data'!AS4</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K4" s="40" t="str">
+      <c r="K4" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="88">
         <v>2030</v>
       </c>
-      <c r="M4" s="101">
+      <c r="M4" s="90">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>392</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="30" t="str">
+      <c r="D5" s="28" t="str">
         <f>'ITR input data'!D5</f>
         <v>FR</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="88">
         <v>2050</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="99">
+      <c r="H5" s="88">
         <v>2019</v>
       </c>
-      <c r="I5" s="99">
+      <c r="I5" s="88">
         <v>2016</v>
       </c>
-      <c r="J5" s="100">
+      <c r="J5" s="89">
         <f>'ITR input data'!AE5/'ITR input data'!AS5</f>
         <v>366.66666666666669</v>
       </c>
-      <c r="K5" s="40" t="str">
+      <c r="K5" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="88">
         <v>2030</v>
       </c>
-      <c r="M5" s="101">
+      <c r="M5" s="90">
         <v>0.5</v>
       </c>
     </row>
@@ -14084,33 +14054,33 @@
         <f>'ITR input data'!D2</f>
         <v>FR</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="88">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="37">
         <v>2019</v>
       </c>
       <c r="I6">
         <v>2016</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <f>'ITR input data'!AL2/'ITR input data'!AS2</f>
         <v>0</v>
       </c>
-      <c r="K6" s="40" t="str">
+      <c r="K6" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O2,"/(",'ITR input data'!P2,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="37">
         <v>2030</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="39">
         <v>0</v>
       </c>
     </row>
@@ -14128,121 +14098,121 @@
         <f>'ITR input data'!D3</f>
         <v>FR</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="88">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="37">
         <v>2019</v>
       </c>
       <c r="I7">
         <v>2016</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="38">
         <f>'ITR input data'!AL3/'ITR input data'!AS3</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K7" s="40" t="str">
+      <c r="K7" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O3,"/(",'ITR input data'!P3,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>391</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D8" t="str">
         <f>'ITR input data'!D4</f>
         <v>FR</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="88">
         <v>2050</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H8" s="99">
+      <c r="H8" s="88">
         <v>2019</v>
       </c>
-      <c r="I8" s="99">
+      <c r="I8" s="88">
         <v>2016</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="38">
         <f>'ITR input data'!AL4/'ITR input data'!AS4</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K8" s="40" t="str">
+      <c r="K8" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O4,"/(",'ITR input data'!P4,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="88">
         <v>2030</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>392</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="28" t="s">
         <v>74</v>
       </c>
       <c r="D9" t="str">
         <f>'ITR input data'!D5</f>
         <v>FR</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="88">
         <v>2050</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="H9" s="99">
+      <c r="H9" s="88">
         <v>2019</v>
       </c>
-      <c r="I9" s="99">
+      <c r="I9" s="88">
         <v>2016</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="38">
         <f>'ITR input data'!AL5/'ITR input data'!AS5</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="K9" s="40" t="str">
+      <c r="K9" s="37" t="str">
         <f>CONCATENATE('ITR input data'!O5,"/(",'ITR input data'!P5,")")</f>
         <v>kt CO2/(TWh)</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="88">
         <v>2030</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="90">
         <v>0.25</v>
       </c>
     </row>
@@ -14271,10 +14241,10 @@
     <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="28" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="28" customWidth="1"/>
     <col min="7" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="31" customWidth="1"/>
     <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" customWidth="1"/>
@@ -14294,31 +14264,31 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="35" t="s">
         <v>296</v>
       </c>
     </row>
@@ -14326,40 +14296,40 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="37">
         <v>2050</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="37">
         <v>2019</v>
       </c>
       <c r="I2">
         <v>2016</v>
       </c>
-      <c r="J2" s="41">
+      <c r="J2" s="38">
         <v>0.67400000000000004</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="37">
         <v>2040</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="39">
         <v>1</v>
       </c>
     </row>
@@ -14376,7 +14346,7 @@
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>2050</v>
       </c>
       <c r="F3" t="s">
@@ -14385,7 +14355,7 @@
       <c r="G3" t="s">
         <v>301</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="37">
         <v>2019</v>
       </c>
       <c r="I3">
@@ -14400,7 +14370,7 @@
       <c r="L3">
         <v>2050</v>
       </c>
-      <c r="M3" s="43">
+      <c r="M3" s="40">
         <v>1</v>
       </c>
     </row>
@@ -14417,16 +14387,16 @@
       <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="37">
         <v>2050</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="41" t="s">
         <v>297</v>
       </c>
       <c r="G4" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="37">
         <v>2019</v>
       </c>
       <c r="I4">
@@ -14441,7 +14411,7 @@
       <c r="L4">
         <v>2030</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14461,26 +14431,26 @@
       <c r="E5" s="18">
         <v>2050</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="37" t="s">
         <v>298</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18">
         <v>2005</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="38">
         <v>10178945</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="18">
         <v>2050</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -14497,16 +14467,16 @@
       <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>2050</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>297</v>
       </c>
       <c r="G6" t="s">
         <v>298</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="31">
         <v>2005</v>
       </c>
       <c r="J6">
@@ -14519,7 +14489,7 @@
       <c r="L6">
         <v>2030</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14536,28 +14506,28 @@
       <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <v>2050</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>300</v>
       </c>
       <c r="G7" t="s">
         <v>298</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="31">
         <v>2005</v>
       </c>
       <c r="J7" s="20">
         <v>38113792</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L7">
         <v>2030</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14574,28 +14544,28 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>2050</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>300</v>
       </c>
       <c r="G8" t="s">
         <v>298</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="31">
         <v>2005</v>
       </c>
       <c r="J8" s="20">
         <v>38113792</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L8">
         <v>2040</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="40">
         <v>0.85</v>
       </c>
     </row>
@@ -14612,28 +14582,28 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="28">
         <v>2050</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G9" t="s">
         <v>303</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>2000</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="28">
         <v>167000000</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L9">
         <v>2030</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14650,28 +14620,28 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>2035</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G10" t="s">
         <v>303</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="31">
         <v>2015</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="38">
         <v>1.3146552000000001E-2</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L10">
         <v>2025</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -14688,25 +14658,25 @@
       <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G11" t="s">
         <v>303</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="31">
         <v>2005</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>299</v>
       </c>
       <c r="L11">
         <v>2030</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -14723,25 +14693,25 @@
       <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G12" t="s">
         <v>303</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>2005</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>299</v>
       </c>
       <c r="L12">
         <v>2040</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -14758,10 +14728,10 @@
       <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="28">
         <v>2050</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G13" t="s">
@@ -14770,7 +14740,7 @@
       <c r="H13">
         <v>2021</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="31">
         <v>2019</v>
       </c>
       <c r="J13">
@@ -14782,7 +14752,7 @@
       <c r="L13">
         <v>2030</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14799,10 +14769,10 @@
       <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2050</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G14" t="s">
@@ -14811,19 +14781,19 @@
       <c r="H14">
         <v>2021</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="31">
         <v>2019</v>
       </c>
       <c r="J14">
         <v>834562</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L14">
         <v>2030</v>
       </c>
-      <c r="M14" s="43">
+      <c r="M14" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -14840,10 +14810,10 @@
       <c r="D15" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="28">
         <v>2050</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G15" t="s">
@@ -14852,20 +14822,20 @@
       <c r="H15">
         <v>2021</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="31">
         <v>2019</v>
       </c>
       <c r="J15" t="e">
         <f>'ITR input data'!AH40+'ITR input data'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L15">
         <v>2030</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -14882,26 +14852,26 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G16" t="s">
         <v>298</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="31">
         <v>2020</v>
       </c>
       <c r="J16">
         <f>0.292832151/0.141</f>
         <v>2.0768237659574469</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L16">
         <v>2050</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -14918,7 +14888,7 @@
       <c r="D17" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G17" t="s">
@@ -14927,19 +14897,19 @@
       <c r="H17">
         <v>2021</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="31">
         <v>2017</v>
       </c>
       <c r="J17">
         <v>73.8</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="37" t="s">
         <v>307</v>
       </c>
       <c r="L17">
         <v>2028</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="40">
         <f>73.8/71-1</f>
         <v>3.9436619718309807E-2</v>
       </c>
@@ -14957,7 +14927,7 @@
       <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G18" t="s">
@@ -14966,20 +14936,20 @@
       <c r="H18">
         <v>2021</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="31">
         <v>2017</v>
       </c>
       <c r="J18">
         <f>36830868.09/90796200</f>
         <v>0.40564327681114409</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L18">
         <v>2030</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="40">
         <v>0.25</v>
       </c>
     </row>
@@ -15005,7 +14975,7 @@
       <c r="H19">
         <v>2020</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="31">
         <v>2005</v>
       </c>
       <c r="J19">
@@ -15017,7 +14987,7 @@
       <c r="L19">
         <v>2040</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15034,7 +15004,7 @@
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G20" t="s">
@@ -15043,19 +15013,19 @@
       <c r="H20">
         <v>2021</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I20" s="31">
         <v>2019</v>
       </c>
       <c r="J20">
         <v>0.48099999999999998</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L20">
         <v>2030</v>
       </c>
-      <c r="M20" s="43">
+      <c r="M20" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -15072,28 +15042,28 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <v>2050</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G21" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="31">
         <v>2011</v>
       </c>
       <c r="J21">
         <v>24000000</v>
       </c>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L21">
         <v>2030</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -15110,10 +15080,10 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="28">
         <v>2040</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G22" t="s">
@@ -15122,7 +15092,7 @@
       <c r="H22">
         <v>2021</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="31">
         <v>2020</v>
       </c>
       <c r="J22">
@@ -15134,7 +15104,7 @@
       <c r="L22">
         <v>2040</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15151,10 +15121,10 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <v>2050</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G23" t="s">
@@ -15163,19 +15133,19 @@
       <c r="H23">
         <v>2017</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="31">
         <v>2005</v>
       </c>
       <c r="J23">
         <v>37700000</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L23">
         <v>2030</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15192,10 +15162,10 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <v>2050</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G24" t="s">
@@ -15204,19 +15174,19 @@
       <c r="H24">
         <v>2017</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="31">
         <v>2005</v>
       </c>
       <c r="J24">
         <v>37700000</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L24">
         <v>2040</v>
       </c>
-      <c r="M24" s="43">
+      <c r="M24" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15233,28 +15203,28 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <v>2050</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G25" t="s">
         <v>303</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="31">
         <v>2005</v>
       </c>
       <c r="J25">
         <v>59.347999999999999</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L25">
         <v>2030</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="40">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -15271,28 +15241,28 @@
       <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="28">
         <v>2050</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G26" t="s">
         <v>303</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="31">
         <v>2005</v>
       </c>
       <c r="J26">
         <v>153000000</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L26">
         <v>2030</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M26" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15309,10 +15279,10 @@
       <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="28">
         <v>2050</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G27" t="s">
@@ -15321,19 +15291,19 @@
       <c r="H27">
         <v>2020</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="31">
         <v>2017</v>
       </c>
       <c r="J27">
         <v>51</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L27">
         <v>2023</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -15350,10 +15320,10 @@
       <c r="D28" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="28">
         <v>2050</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G28" t="s">
@@ -15362,19 +15332,19 @@
       <c r="H28">
         <v>2020</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="31">
         <v>2019</v>
       </c>
       <c r="J28">
         <v>119</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L28">
         <v>2023</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="40">
         <v>0.08</v>
       </c>
     </row>
@@ -15391,10 +15361,10 @@
       <c r="D29" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="28">
         <v>2050</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G29" t="s">
@@ -15403,19 +15373,19 @@
       <c r="H29">
         <v>2020</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="31">
         <v>2017</v>
       </c>
       <c r="J29">
         <v>51</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L29">
         <v>2030</v>
       </c>
-      <c r="M29" s="43">
+      <c r="M29" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15432,10 +15402,10 @@
       <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="28">
         <v>2050</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G30" t="s">
@@ -15444,19 +15414,19 @@
       <c r="H30">
         <v>2020</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="31">
         <v>2019</v>
       </c>
       <c r="J30">
         <v>119</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L30">
         <v>2030</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="40">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -15473,10 +15443,10 @@
       <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="28">
         <v>2045</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G31" t="s">
@@ -15485,10 +15455,10 @@
       <c r="H31">
         <v>2021</v>
       </c>
-      <c r="I31" s="33">
+      <c r="I31" s="31">
         <v>2018</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="43">
         <f>1.1+1.2+0*15.8</f>
         <v>2.2999999999999998</v>
       </c>
@@ -15498,7 +15468,7 @@
       <c r="L31">
         <v>2045</v>
       </c>
-      <c r="M31" s="43">
+      <c r="M31" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15515,10 +15485,10 @@
       <c r="D32" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="28">
         <v>2030</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G32" t="s">
@@ -15527,19 +15497,19 @@
       <c r="H32">
         <v>2020</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="31">
         <v>2017</v>
       </c>
       <c r="J32">
         <v>125</v>
       </c>
-      <c r="K32" s="40" t="s">
+      <c r="K32" s="37" t="s">
         <v>308</v>
       </c>
       <c r="L32">
         <v>2030</v>
       </c>
-      <c r="M32" s="43">
+      <c r="M32" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -15556,10 +15526,10 @@
       <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="28">
         <v>2050</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G33" t="s">
@@ -15568,19 +15538,19 @@
       <c r="H33">
         <v>2020</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>2000</v>
       </c>
       <c r="J33">
         <v>49960899</v>
       </c>
-      <c r="K33" s="40" t="s">
+      <c r="K33" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L33">
         <v>2050</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15597,10 +15567,10 @@
       <c r="D34" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="28">
         <v>2050</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G34" t="s">
@@ -15609,19 +15579,19 @@
       <c r="H34">
         <v>2030</v>
       </c>
-      <c r="I34" s="33">
+      <c r="I34" s="31">
         <v>2000</v>
       </c>
       <c r="J34">
         <v>0.4826223</v>
       </c>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="37" t="s">
         <v>299</v>
       </c>
       <c r="L34">
         <v>2030</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15638,28 +15608,28 @@
       <c r="D35" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="28">
         <v>2045</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G35" t="s">
         <v>303</v>
       </c>
-      <c r="I35" s="33">
+      <c r="I35" s="31">
         <v>2005</v>
       </c>
       <c r="J35" s="20">
         <v>48455198</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L35">
         <v>2030</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -15676,10 +15646,10 @@
       <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="28">
         <v>2030</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G36" t="s">
@@ -15688,19 +15658,19 @@
       <c r="H36">
         <v>2019</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="31">
         <v>2018</v>
       </c>
       <c r="J36">
         <v>828107</v>
       </c>
-      <c r="K36" s="40" t="s">
+      <c r="K36" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L36">
         <v>2030</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="40">
         <v>1</v>
       </c>
     </row>
@@ -15717,10 +15687,10 @@
       <c r="D37" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <v>2050</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G37" t="s">
@@ -15729,19 +15699,19 @@
       <c r="H37">
         <v>2021</v>
       </c>
-      <c r="I37" s="33">
+      <c r="I37" s="31">
         <v>2015</v>
       </c>
       <c r="J37">
         <v>1100</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K37" s="37" t="s">
         <v>139</v>
       </c>
       <c r="L37">
         <v>2030</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15758,10 +15728,10 @@
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="28">
         <v>2050</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="F38" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G38" t="s">
@@ -15770,19 +15740,19 @@
       <c r="H38">
         <v>2021</v>
       </c>
-      <c r="I38" s="33">
+      <c r="I38" s="31">
         <v>2016</v>
       </c>
       <c r="J38">
         <v>125</v>
       </c>
-      <c r="K38" s="40" t="s">
+      <c r="K38" s="37" t="s">
         <v>64</v>
       </c>
       <c r="L38">
         <v>2025</v>
       </c>
-      <c r="M38" s="43">
+      <c r="M38" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -15799,7 +15769,7 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G39" t="s">
@@ -15808,19 +15778,19 @@
       <c r="H39">
         <v>2015</v>
       </c>
-      <c r="I39" s="33">
+      <c r="I39" s="31">
         <v>2005</v>
       </c>
       <c r="J39">
         <v>86403130</v>
       </c>
-      <c r="K39" s="40" t="s">
+      <c r="K39" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L39">
         <v>2045</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="40">
         <v>0.62</v>
       </c>
     </row>
@@ -15837,7 +15807,7 @@
       <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="30" t="s">
+      <c r="F40" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G40" t="s">
@@ -15846,19 +15816,19 @@
       <c r="H40">
         <v>2021</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="31">
         <v>2019</v>
       </c>
       <c r="J40">
         <v>309</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="37" t="s">
         <v>309</v>
       </c>
       <c r="L40">
         <v>2035</v>
       </c>
-      <c r="M40" s="43">
+      <c r="M40" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -15875,7 +15845,7 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G41" t="s">
@@ -15884,19 +15854,19 @@
       <c r="H41">
         <v>2021</v>
       </c>
-      <c r="I41" s="33">
+      <c r="I41" s="31">
         <v>2019</v>
       </c>
       <c r="J41">
         <v>3480</v>
       </c>
-      <c r="K41" s="40" t="s">
+      <c r="K41" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L41">
         <v>2035</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="40">
         <v>0.76</v>
       </c>
     </row>
@@ -15913,7 +15883,7 @@
       <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G42" t="s">
@@ -15922,60 +15892,60 @@
       <c r="H42">
         <v>2020</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="31">
         <v>2019</v>
       </c>
       <c r="J42" s="20">
         <v>11925000</v>
       </c>
-      <c r="K42" s="40" t="s">
+      <c r="K42" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L42">
         <v>2035</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="40">
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="93" customFormat="1">
-      <c r="A43" s="86" t="s">
+    <row r="43" spans="1:13">
+      <c r="A43" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="88">
+      <c r="E43" s="79">
         <v>2040</v>
       </c>
-      <c r="F43" s="88" t="s">
+      <c r="F43" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="G43" s="86" t="s">
+      <c r="G43" s="77" t="s">
         <v>304</v>
       </c>
-      <c r="H43" s="86">
+      <c r="H43" s="77">
         <v>2021</v>
       </c>
-      <c r="I43" s="89">
+      <c r="I43" s="80">
         <v>2020</v>
       </c>
-      <c r="J43" s="90">
+      <c r="J43" s="81">
         <v>309</v>
       </c>
-      <c r="K43" s="91" t="s">
+      <c r="K43" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="L43" s="86">
+      <c r="L43" s="77">
         <v>2040</v>
       </c>
-      <c r="M43" s="92">
+      <c r="M43" s="83">
         <v>0.2</v>
       </c>
     </row>
@@ -15992,10 +15962,10 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="28">
         <v>2040</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G44" t="s">
@@ -16004,19 +15974,19 @@
       <c r="H44">
         <v>2021</v>
       </c>
-      <c r="I44" s="33">
+      <c r="I44" s="31">
         <v>2020</v>
       </c>
       <c r="J44" s="20">
         <v>3813946</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="37" t="s">
         <v>58</v>
       </c>
       <c r="L44">
         <v>2040</v>
       </c>
-      <c r="M44" s="43">
+      <c r="M44" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16033,10 +16003,10 @@
       <c r="D45" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="28">
         <v>2050</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G45" t="s">
@@ -16045,19 +16015,19 @@
       <c r="H45">
         <v>2022</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="31">
         <v>2020</v>
       </c>
       <c r="J45">
         <v>0.93</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="37" t="s">
         <v>306</v>
       </c>
       <c r="L45">
         <v>2031</v>
       </c>
-      <c r="M45" s="43">
+      <c r="M45" s="40">
         <v>0.108</v>
       </c>
     </row>
@@ -16074,7 +16044,7 @@
       <c r="D46" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G46" t="s">
@@ -16083,19 +16053,19 @@
       <c r="H46">
         <v>2020</v>
       </c>
-      <c r="I46" s="33">
+      <c r="I46" s="31">
         <v>2010</v>
       </c>
       <c r="J46">
         <v>0.76300000000000001</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="37" t="s">
         <v>299</v>
       </c>
       <c r="L46">
         <v>2030</v>
       </c>
-      <c r="M46" s="43">
+      <c r="M46" s="40">
         <v>0.1</v>
       </c>
     </row>
@@ -16112,10 +16082,10 @@
       <c r="D47" t="s">
         <v>179</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="28">
         <v>2050</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G47" t="s">
@@ -16124,19 +16094,19 @@
       <c r="H47">
         <v>2022</v>
       </c>
-      <c r="I47" s="33">
+      <c r="I47" s="31">
         <v>2021</v>
       </c>
       <c r="J47">
         <v>96</v>
       </c>
-      <c r="K47" s="40" t="s">
+      <c r="K47" s="37" t="s">
         <v>308</v>
       </c>
       <c r="L47">
         <v>2030</v>
       </c>
-      <c r="M47" s="43">
+      <c r="M47" s="40">
         <f>50/96</f>
         <v>0.52083333333333337</v>
       </c>
@@ -16154,26 +16124,26 @@
       <c r="D48" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="30" t="s">
+      <c r="F48" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G48" t="s">
         <v>298</v>
       </c>
-      <c r="I48" s="33">
+      <c r="I48" s="31">
         <v>2000</v>
       </c>
       <c r="J48">
         <f>2650/2000</f>
         <v>1.325</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="37" t="s">
         <v>299</v>
       </c>
       <c r="L48">
         <v>2030</v>
       </c>
-      <c r="M48" s="43">
+      <c r="M48" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16190,7 +16160,7 @@
       <c r="D49" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="28">
         <v>2050</v>
       </c>
       <c r="F49" t="s">
@@ -16215,7 +16185,7 @@
       <c r="L49">
         <v>2030</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16232,7 +16202,7 @@
       <c r="D50" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="28">
         <v>2050</v>
       </c>
       <c r="F50" t="s">
@@ -16257,7 +16227,7 @@
       <c r="L50">
         <v>2040</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -16274,10 +16244,10 @@
       <c r="D51" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="28">
         <v>2050</v>
       </c>
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G51" t="s">
@@ -16292,13 +16262,13 @@
       <c r="J51">
         <v>843</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="37" t="s">
         <v>310</v>
       </c>
       <c r="L51">
         <v>2025</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="40">
         <v>0.67</v>
       </c>
     </row>
@@ -16315,7 +16285,7 @@
       <c r="D52" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="28">
         <v>2050</v>
       </c>
       <c r="F52" t="s">
@@ -16340,7 +16310,7 @@
       <c r="L52">
         <v>2030</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="40">
         <v>0.9</v>
       </c>
     </row>
@@ -16357,10 +16327,10 @@
       <c r="D53" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="28">
         <v>2050</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G53" t="s">
@@ -16369,7 +16339,7 @@
       <c r="H53">
         <v>2019</v>
       </c>
-      <c r="I53" s="33">
+      <c r="I53" s="31">
         <v>2010</v>
       </c>
       <c r="J53" s="20">
@@ -16381,24 +16351,24 @@
       <c r="L53">
         <v>2045</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="40">
         <v>0.9</v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="23" t="s">
+      <c r="A54" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" t="s">
         <v>195</v>
       </c>
       <c r="D54" t="s">
         <v>196</v>
       </c>
-      <c r="E54" s="30">
+      <c r="E54" s="28">
         <v>2050</v>
       </c>
       <c r="F54" t="s">
@@ -16422,7 +16392,7 @@
       <c r="L54">
         <v>2030</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -16460,7 +16430,7 @@
       <c r="L55">
         <v>2030</v>
       </c>
-      <c r="M55" s="43">
+      <c r="M55" s="40">
         <v>0.35</v>
       </c>
     </row>
@@ -16477,7 +16447,7 @@
       <c r="D56" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="F56" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G56" t="s">
@@ -16486,7 +16456,7 @@
       <c r="H56">
         <v>2018</v>
       </c>
-      <c r="I56" s="33">
+      <c r="I56" s="31">
         <v>2005</v>
       </c>
       <c r="J56" s="20">
@@ -16498,7 +16468,7 @@
       <c r="L56">
         <v>2030</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16515,7 +16485,7 @@
       <c r="D57" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G57" t="s">
@@ -16524,7 +16494,7 @@
       <c r="H57">
         <v>2018</v>
       </c>
-      <c r="I57" s="33">
+      <c r="I57" s="31">
         <v>2005</v>
       </c>
       <c r="J57" s="20">
@@ -16536,7 +16506,7 @@
       <c r="L57">
         <v>2050</v>
       </c>
-      <c r="M57" s="43">
+      <c r="M57" s="40">
         <v>0.95</v>
       </c>
     </row>
@@ -16553,10 +16523,10 @@
       <c r="D58" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="30">
+      <c r="E58" s="28">
         <v>2045</v>
       </c>
-      <c r="F58" s="30" t="s">
+      <c r="F58" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G58" t="s">
@@ -16565,7 +16535,7 @@
       <c r="H58">
         <v>2021</v>
       </c>
-      <c r="I58" s="33">
+      <c r="I58" s="31">
         <v>2016</v>
       </c>
       <c r="J58">
@@ -16577,7 +16547,7 @@
       <c r="L58">
         <v>2045</v>
       </c>
-      <c r="M58" s="43">
+      <c r="M58" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16594,10 +16564,10 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E59" s="28">
         <v>2040</v>
       </c>
-      <c r="F59" s="30" t="s">
+      <c r="F59" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G59" t="s">
@@ -16606,10 +16576,10 @@
       <c r="H59">
         <v>2019</v>
       </c>
-      <c r="I59" s="33">
+      <c r="I59" s="31">
         <v>2005</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J59" s="44">
         <v>6976930.1319702603</v>
       </c>
       <c r="K59" t="s">
@@ -16618,7 +16588,7 @@
       <c r="L59">
         <v>2040</v>
       </c>
-      <c r="M59" s="43">
+      <c r="M59" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16635,10 +16605,10 @@
       <c r="D60" t="s">
         <v>216</v>
       </c>
-      <c r="E60" s="30">
+      <c r="E60" s="28">
         <v>2050</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G60" t="s">
@@ -16647,7 +16617,7 @@
       <c r="H60">
         <v>2020</v>
       </c>
-      <c r="I60" s="33">
+      <c r="I60" s="31">
         <v>2017</v>
       </c>
       <c r="J60">
@@ -16659,7 +16629,7 @@
       <c r="L60">
         <v>2030</v>
       </c>
-      <c r="M60" s="43">
+      <c r="M60" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -16676,10 +16646,10 @@
       <c r="D61" t="s">
         <v>216</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="28">
         <v>2050</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G61" t="s">
@@ -16688,7 +16658,7 @@
       <c r="H61">
         <v>2020</v>
       </c>
-      <c r="I61" s="33">
+      <c r="I61" s="31">
         <v>2017</v>
       </c>
       <c r="J61">
@@ -16700,7 +16670,7 @@
       <c r="L61">
         <v>2040</v>
       </c>
-      <c r="M61" s="43">
+      <c r="M61" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -16717,10 +16687,10 @@
       <c r="D62" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>2050</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G62" t="s">
@@ -16729,7 +16699,7 @@
       <c r="H62">
         <v>2021</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>2010</v>
       </c>
       <c r="J62" s="20">
@@ -16742,7 +16712,7 @@
       <c r="L62">
         <v>2035</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16759,10 +16729,10 @@
       <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="28">
         <v>2050</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G63" t="s">
@@ -16771,7 +16741,7 @@
       <c r="H63">
         <v>2021</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>2010</v>
       </c>
       <c r="J63" s="20">
@@ -16784,7 +16754,7 @@
       <c r="L63">
         <v>2040</v>
       </c>
-      <c r="M63" s="43">
+      <c r="M63" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16801,10 +16771,10 @@
       <c r="D64" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="28">
         <v>2050</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G64" t="s">
@@ -16813,10 +16783,10 @@
       <c r="H64">
         <v>2020</v>
       </c>
-      <c r="I64" s="33">
+      <c r="I64" s="31">
         <v>2005</v>
       </c>
-      <c r="J64" s="48">
+      <c r="J64" s="45">
         <v>16557441</v>
       </c>
       <c r="K64" t="s">
@@ -16825,7 +16795,7 @@
       <c r="L64">
         <v>2030</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="40">
         <v>0.7</v>
       </c>
     </row>
@@ -16842,10 +16812,10 @@
       <c r="D65" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="30">
+      <c r="E65" s="28">
         <v>2040</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G65" t="s">
@@ -16854,7 +16824,7 @@
       <c r="H65">
         <v>2020</v>
       </c>
-      <c r="I65" s="33">
+      <c r="I65" s="31">
         <v>2010</v>
       </c>
       <c r="J65">
@@ -16866,7 +16836,7 @@
       <c r="L65">
         <v>2030</v>
       </c>
-      <c r="M65" s="43">
+      <c r="M65" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -16883,10 +16853,10 @@
       <c r="D66" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="30">
+      <c r="E66" s="28">
         <v>2030</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G66" t="s">
@@ -16895,7 +16865,7 @@
       <c r="H66">
         <v>2021</v>
       </c>
-      <c r="I66" s="33">
+      <c r="I66" s="31">
         <v>2005</v>
       </c>
       <c r="J66" s="20">
@@ -16907,7 +16877,7 @@
       <c r="L66">
         <v>2030</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="40">
         <v>1</v>
       </c>
     </row>
@@ -16924,7 +16894,7 @@
       <c r="D67" t="s">
         <v>232</v>
       </c>
-      <c r="F67" s="30" t="s">
+      <c r="F67" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G67" t="s">
@@ -16933,7 +16903,7 @@
       <c r="H67">
         <v>2021</v>
       </c>
-      <c r="I67" s="33">
+      <c r="I67" s="31">
         <v>2018</v>
       </c>
       <c r="J67" s="20">
@@ -16945,7 +16915,7 @@
       <c r="L67">
         <v>2035</v>
       </c>
-      <c r="M67" s="43">
+      <c r="M67" s="40">
         <v>0.15</v>
       </c>
     </row>
@@ -16962,10 +16932,10 @@
       <c r="D68" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E68" s="28">
         <v>2050</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G68" t="s">
@@ -16974,10 +16944,10 @@
       <c r="H68">
         <v>2020</v>
       </c>
-      <c r="I68" s="33">
+      <c r="I68" s="31">
         <v>2019</v>
       </c>
-      <c r="J68" s="49">
+      <c r="J68" s="46">
         <v>0.80243130614229896</v>
       </c>
       <c r="K68" t="s">
@@ -16986,7 +16956,7 @@
       <c r="L68">
         <v>2030</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17003,10 +16973,10 @@
       <c r="D69" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="28">
         <v>2050</v>
       </c>
-      <c r="F69" s="30" t="s">
+      <c r="F69" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G69" t="s">
@@ -17015,10 +16985,10 @@
       <c r="H69">
         <v>2021</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="31">
         <v>2016</v>
       </c>
-      <c r="J69" s="49">
+      <c r="J69" s="46">
         <v>68</v>
       </c>
       <c r="K69" t="s">
@@ -17027,7 +16997,7 @@
       <c r="L69">
         <v>2030</v>
       </c>
-      <c r="M69" s="43">
+      <c r="M69" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17044,10 +17014,10 @@
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="28">
         <v>2050</v>
       </c>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G70" t="s">
@@ -17056,10 +17026,10 @@
       <c r="H70">
         <v>2020</v>
       </c>
-      <c r="I70" s="33">
+      <c r="I70" s="31">
         <v>2007</v>
       </c>
-      <c r="J70" s="49">
+      <c r="J70" s="46">
         <v>0.98420553538837796</v>
       </c>
       <c r="K70" t="s">
@@ -17068,7 +17038,7 @@
       <c r="L70">
         <v>2030</v>
       </c>
-      <c r="M70" s="43">
+      <c r="M70" s="40">
         <v>0.5</v>
       </c>
     </row>
@@ -17085,10 +17055,10 @@
       <c r="D71" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="28">
         <v>2050</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G71" t="s">
@@ -17097,7 +17067,7 @@
       <c r="H71">
         <v>2021</v>
       </c>
-      <c r="I71" s="33">
+      <c r="I71" s="31">
         <v>2018</v>
       </c>
       <c r="J71">
@@ -17109,7 +17079,7 @@
       <c r="L71">
         <v>2025</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17126,10 +17096,10 @@
       <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="28">
         <v>2050</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="F72" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G72" t="s">
@@ -17138,7 +17108,7 @@
       <c r="H72">
         <v>2021</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="31">
         <v>2018</v>
       </c>
       <c r="J72">
@@ -17150,7 +17120,7 @@
       <c r="L72">
         <v>2030</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17167,10 +17137,10 @@
       <c r="D73" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="28">
         <v>2050</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G73" t="s">
@@ -17179,10 +17149,10 @@
       <c r="H73">
         <v>2020</v>
       </c>
-      <c r="I73" s="33">
+      <c r="I73" s="31">
         <v>2019</v>
       </c>
-      <c r="J73" s="49">
+      <c r="J73" s="46">
         <v>0.46760301224943002</v>
       </c>
       <c r="K73" t="s">
@@ -17191,7 +17161,7 @@
       <c r="L73">
         <v>2030</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17208,7 +17178,7 @@
       <c r="D74" t="s">
         <v>252</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G74" t="s">
@@ -17217,10 +17187,10 @@
       <c r="H74">
         <v>2021</v>
       </c>
-      <c r="I74" s="33">
+      <c r="I74" s="31">
         <v>2018</v>
       </c>
-      <c r="J74" s="49">
+      <c r="J74" s="46">
         <v>2.9</v>
       </c>
       <c r="K74" t="s">
@@ -17229,7 +17199,7 @@
       <c r="L74">
         <v>2030</v>
       </c>
-      <c r="M74" s="43">
+      <c r="M74" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17246,7 +17216,7 @@
       <c r="D75" t="s">
         <v>252</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G75" t="s">
@@ -17255,10 +17225,10 @@
       <c r="H75">
         <v>2021</v>
       </c>
-      <c r="I75" s="33">
+      <c r="I75" s="31">
         <v>2018</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="46">
         <v>1.69</v>
       </c>
       <c r="K75" t="s">
@@ -17267,7 +17237,7 @@
       <c r="L75">
         <v>2030</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17284,10 +17254,10 @@
       <c r="D76" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="28">
         <v>2050</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G76" t="s">
@@ -17296,10 +17266,10 @@
       <c r="H76">
         <v>2021</v>
       </c>
-      <c r="I76" s="33">
+      <c r="I76" s="31">
         <v>2017</v>
       </c>
-      <c r="J76" s="49">
+      <c r="J76" s="46">
         <f>(185000+403000)/(25200*1.6)</f>
         <v>14.583333333333334</v>
       </c>
@@ -17309,7 +17279,7 @@
       <c r="L76">
         <v>2030</v>
       </c>
-      <c r="M76" s="43">
+      <c r="M76" s="40">
         <v>0</v>
       </c>
     </row>
@@ -17326,7 +17296,7 @@
       <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G77" t="s">
@@ -17335,10 +17305,10 @@
       <c r="H77">
         <v>2021</v>
       </c>
-      <c r="I77" s="33">
+      <c r="I77" s="31">
         <v>2018</v>
       </c>
-      <c r="J77" s="49">
+      <c r="J77" s="46">
         <v>0.42172199999999999</v>
       </c>
       <c r="K77" t="s">
@@ -17347,7 +17317,7 @@
       <c r="L77">
         <v>2030</v>
       </c>
-      <c r="M77" s="43">
+      <c r="M77" s="40">
         <v>0.4</v>
       </c>
     </row>
@@ -17364,10 +17334,10 @@
       <c r="D78" t="s">
         <v>196</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="28">
         <v>2050</v>
       </c>
-      <c r="F78" s="30" t="s">
+      <c r="F78" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G78" t="s">
@@ -17376,10 +17346,10 @@
       <c r="H78">
         <v>2020</v>
       </c>
-      <c r="I78" s="33">
+      <c r="I78" s="31">
         <v>2020</v>
       </c>
-      <c r="J78" s="50">
+      <c r="J78" s="47">
         <v>130</v>
       </c>
       <c r="K78" t="s">
@@ -17388,7 +17358,7 @@
       <c r="L78">
         <v>2030</v>
       </c>
-      <c r="M78" s="51">
+      <c r="M78" s="48">
         <v>0.2</v>
       </c>
     </row>
@@ -17405,19 +17375,19 @@
       <c r="D79" t="s">
         <v>196</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="28">
         <v>2050</v>
       </c>
-      <c r="F79" s="30" t="s">
+      <c r="F79" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G79" t="s">
         <v>298</v>
       </c>
-      <c r="I79" s="33">
+      <c r="I79" s="31">
         <v>2020</v>
       </c>
-      <c r="J79" s="50">
+      <c r="J79" s="47">
         <v>4.9000000000000004</v>
       </c>
       <c r="K79" t="s">
@@ -17426,7 +17396,7 @@
       <c r="L79">
         <v>2030</v>
       </c>
-      <c r="M79" s="51">
+      <c r="M79" s="48">
         <v>0.2</v>
       </c>
     </row>
@@ -17443,7 +17413,7 @@
       <c r="D80" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="F80" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G80" t="s">
@@ -17452,10 +17422,10 @@
       <c r="H80">
         <v>2020</v>
       </c>
-      <c r="I80" s="33">
+      <c r="I80" s="31">
         <v>2018</v>
       </c>
-      <c r="J80" s="49">
+      <c r="J80" s="46">
         <v>0.315911</v>
       </c>
       <c r="K80" t="s">
@@ -17464,7 +17434,7 @@
       <c r="L80">
         <v>2030</v>
       </c>
-      <c r="M80" s="43">
+      <c r="M80" s="40">
         <v>0.2</v>
       </c>
     </row>
@@ -17481,10 +17451,10 @@
       <c r="D81" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="28">
         <v>2050</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="F81" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G81" t="s">
@@ -17493,10 +17463,10 @@
       <c r="H81">
         <v>2021</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="31">
         <v>2015</v>
       </c>
-      <c r="J81" s="49">
+      <c r="J81" s="46">
         <v>1.8</v>
       </c>
       <c r="K81" t="s">
@@ -17505,7 +17475,7 @@
       <c r="L81">
         <v>2030</v>
       </c>
-      <c r="M81" s="43">
+      <c r="M81" s="40">
         <v>0.16</v>
       </c>
     </row>
@@ -17522,10 +17492,10 @@
       <c r="D82" t="s">
         <v>271</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="28">
         <v>2050</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="F82" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G82" t="s">
@@ -17534,10 +17504,10 @@
       <c r="H82">
         <v>2021</v>
       </c>
-      <c r="I82" s="33">
+      <c r="I82" s="31">
         <v>2015</v>
       </c>
-      <c r="J82" s="49">
+      <c r="J82" s="46">
         <v>3.7</v>
       </c>
       <c r="K82" t="s">
@@ -17546,49 +17516,49 @@
       <c r="L82">
         <v>2030</v>
       </c>
-      <c r="M82" s="43">
+      <c r="M82" s="40">
         <f>3.7/3.5-1</f>
         <v>5.7142857142857162E-2</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C83" s="49" t="s">
         <v>275</v>
       </c>
       <c r="D83" t="s">
         <v>165</v>
       </c>
-      <c r="E83" s="52">
+      <c r="E83" s="49">
         <v>2050</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="G83" s="52" t="s">
+      <c r="G83" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="H83" s="52">
+      <c r="H83" s="49">
         <v>2020</v>
       </c>
-      <c r="I83" s="52">
+      <c r="I83" s="49">
         <v>2005</v>
       </c>
-      <c r="J83" s="52">
+      <c r="J83" s="49">
         <v>11.6416389602593</v>
       </c>
-      <c r="K83" s="52" t="s">
+      <c r="K83" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L83" s="52">
+      <c r="L83" s="49">
         <v>2050</v>
       </c>
-      <c r="M83" s="53">
+      <c r="M83" s="50">
         <v>1</v>
       </c>
     </row>
@@ -17605,10 +17575,10 @@
       <c r="D84" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="28">
         <v>2050</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="28" t="s">
         <v>300</v>
       </c>
       <c r="G84" t="s">
@@ -17617,7 +17587,7 @@
       <c r="H84">
         <v>2020</v>
       </c>
-      <c r="I84" s="33">
+      <c r="I84" s="31">
         <v>2010</v>
       </c>
       <c r="J84">
@@ -17629,7 +17599,7 @@
       <c r="L84">
         <v>2030</v>
       </c>
-      <c r="M84" s="43">
+      <c r="M84" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -17646,10 +17616,10 @@
       <c r="D85" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="28">
         <v>2050</v>
       </c>
-      <c r="F85" s="30" t="s">
+      <c r="F85" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G85" t="s">
@@ -17658,7 +17628,7 @@
       <c r="H85">
         <v>2020</v>
       </c>
-      <c r="I85" s="33">
+      <c r="I85" s="31">
         <v>2005</v>
       </c>
       <c r="J85">
@@ -17670,7 +17640,7 @@
       <c r="L85">
         <v>2025</v>
       </c>
-      <c r="M85" s="43">
+      <c r="M85" s="40">
         <v>0.6</v>
       </c>
     </row>
@@ -17687,10 +17657,10 @@
       <c r="D86" t="s">
         <v>54</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="28">
         <v>2050</v>
       </c>
-      <c r="F86" s="30" t="s">
+      <c r="F86" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G86" t="s">
@@ -17699,7 +17669,7 @@
       <c r="H86">
         <v>2020</v>
       </c>
-      <c r="I86" s="33">
+      <c r="I86" s="31">
         <v>2005</v>
       </c>
       <c r="J86">
@@ -17711,7 +17681,7 @@
       <c r="L86">
         <v>2030</v>
       </c>
-      <c r="M86" s="43">
+      <c r="M86" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17728,10 +17698,10 @@
       <c r="D87" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="28">
         <v>2050</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G87" t="s">
@@ -17740,10 +17710,10 @@
       <c r="H87">
         <v>2020</v>
       </c>
-      <c r="I87" s="33">
+      <c r="I87" s="31">
         <v>2018</v>
       </c>
-      <c r="J87" s="49">
+      <c r="J87" s="46">
         <v>0.315911</v>
       </c>
       <c r="K87" t="s">
@@ -17752,7 +17722,7 @@
       <c r="L87">
         <v>2030</v>
       </c>
-      <c r="M87" s="43">
+      <c r="M87" s="40">
         <v>0.3</v>
       </c>
     </row>
@@ -17769,10 +17739,10 @@
       <c r="D88" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="28">
         <v>2050</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="28" t="s">
         <v>297</v>
       </c>
       <c r="G88" t="s">
@@ -17781,10 +17751,10 @@
       <c r="H88">
         <v>2020</v>
       </c>
-      <c r="I88" s="33">
+      <c r="I88" s="31">
         <v>2005</v>
       </c>
-      <c r="J88" s="49">
+      <c r="J88" s="46">
         <v>0.88086205923584704</v>
       </c>
       <c r="K88" t="s">
@@ -17793,7 +17763,7 @@
       <c r="L88">
         <v>2030</v>
       </c>
-      <c r="M88" s="43">
+      <c r="M88" s="40">
         <v>0.8</v>
       </c>
     </row>
@@ -17817,9 +17787,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="51" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" customWidth="1"/>
@@ -17827,1202 +17797,1202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="57" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" t="s">
         <v>322</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="E5" s="65" t="s">
+      <c r="E5" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" t="s">
         <v>332</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" t="s">
         <v>322</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" t="s">
         <v>337</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" t="s">
         <v>337</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" t="s">
         <v>337</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="58" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" t="s">
         <v>337</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="54" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A16" s="72" t="s">
+    <row r="16" spans="1:6" s="51" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A16" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="E16" s="66" t="s">
         <v>345</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="51" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="54" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A17" s="72" t="s">
+    <row r="17" spans="1:6" s="51" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A17" s="65" t="s">
         <v>346</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="51" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" t="s">
         <v>351</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" t="s">
         <v>351</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" t="s">
         <v>351</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" t="s">
         <v>351</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="E23" s="65" t="s">
+      <c r="E23" t="s">
         <v>351</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="E24" s="78" t="s">
+      <c r="E24" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="69" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="32">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" t="s">
         <v>351</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="32">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" t="s">
         <v>351</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="32">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" t="s">
         <v>351</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E28" s="65" t="s">
+      <c r="E28" t="s">
         <v>351</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" t="s">
         <v>351</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="32">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" t="s">
         <v>351</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="69" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="32">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" t="s">
         <v>351</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="E33" t="s">
         <v>351</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E34" s="65" t="s">
+      <c r="E34" t="s">
         <v>351</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E35" s="65" t="s">
+      <c r="E35" t="s">
         <v>351</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="32">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" t="s">
         <v>351</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="69" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F38" s="77" t="s">
+      <c r="F38" s="69" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="63" t="s">
+      <c r="C39" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" t="s">
         <v>351</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" t="s">
         <v>351</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="32">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" t="s">
         <v>351</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
-      <c r="A42" s="75" t="s">
+      <c r="A42" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E42" s="65" t="s">
+      <c r="E42" t="s">
         <v>351</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
-      <c r="A43" s="75" t="s">
+      <c r="A43" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" t="s">
         <v>351</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
-      <c r="A44" s="75" t="s">
+      <c r="A44" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E44" s="65" t="s">
+      <c r="E44" t="s">
         <v>351</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="69" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="B46" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E46" s="65" t="s">
+      <c r="E46" t="s">
         <v>351</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" t="s">
         <v>351</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B48" s="62" t="s">
+      <c r="B48" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="E48" t="s">
         <v>351</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B49" s="62" t="s">
+      <c r="B49" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" t="s">
         <v>351</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="32">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" t="s">
         <v>351</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="32">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="B51" s="62" t="s">
+      <c r="B51" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" t="s">
         <v>351</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="32">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" t="s">
         <v>369</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E53" s="65" t="s">
+      <c r="E53" t="s">
         <v>371</v>
       </c>
-      <c r="F53" s="65" t="s">
+      <c r="F53" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="16">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="74" t="s">
         <v>372</v>
       </c>
-      <c r="E54" s="68" t="s">
+      <c r="E54" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="F54" s="4" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="16">
-      <c r="A55" s="82" t="s">
+      <c r="A55" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D55" s="69" t="s">
+      <c r="D55" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" t="s">
         <v>373</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="80">
-      <c r="A56" s="82" t="s">
+      <c r="A56" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B56" s="62" t="s">
+      <c r="B56" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E56" s="65" t="s">
+      <c r="E56" t="s">
         <v>376</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="112">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B57" s="62" t="s">
+      <c r="B57" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="E57" s="84" t="s">
+      <c r="E57" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="16">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" t="s">
         <v>373</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="32">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="73" t="s">
         <v>366</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" t="s">
         <v>381</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="60" t="s">
         <v>367</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="E60" s="65" t="s">
+      <c r="E60" t="s">
         <v>373</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" t="s">
         <v>323</v>
       </c>
     </row>
@@ -19039,8 +19009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -19064,7 +19034,7 @@
         <v>385</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19082,7 +19052,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E5" ca="1" si="0">RANDBETWEEN(35000,250000)</f>
-        <v>145271</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19100,7 +19070,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>75881</v>
+        <v>176109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19118,14 +19088,14 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>192235</v>
+        <v>38428</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="87" t="s">
         <v>73</v>
       </c>
       <c r="C5" t="s">
@@ -19136,7 +19106,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>55337</v>
+        <v>148414</v>
       </c>
     </row>
   </sheetData>
@@ -19195,7 +19165,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(35000,250000)</f>
-        <v>180848</v>
+        <v>64894</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -19213,7 +19183,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>219215</v>
+        <v>97328</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -19231,7 +19201,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>156762</v>
+        <v>38582</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -19249,7 +19219,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>242552</v>
+        <v>236659</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -19267,7 +19237,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>156618</v>
+        <v>197013</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -19285,7 +19255,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>118411</v>
+        <v>118821</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -19303,7 +19273,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>214547</v>
+        <v>195801</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -19321,7 +19291,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>157284</v>
+        <v>186497</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -19339,7 +19309,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>125069</v>
+        <v>152724</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -19357,7 +19327,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>58501</v>
+        <v>106524</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -19375,7 +19345,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>45553</v>
+        <v>70918</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -19393,7 +19363,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>94873</v>
+        <v>163702</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -19411,7 +19381,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>47157</v>
+        <v>200766</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -19429,7 +19399,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>100314</v>
+        <v>114216</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -19447,7 +19417,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>46823</v>
+        <v>94677</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -19465,7 +19435,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>137769</v>
+        <v>244709</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -19483,7 +19453,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>229464</v>
+        <v>210369</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -19501,7 +19471,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>201059</v>
+        <v>175861</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -19519,7 +19489,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>114563</v>
+        <v>82696</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -19537,7 +19507,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>207401</v>
+        <v>245370</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -19555,7 +19525,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>81422</v>
+        <v>129582</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -19573,7 +19543,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>198173</v>
+        <v>212051</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -19591,7 +19561,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>153432</v>
+        <v>148231</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -19609,7 +19579,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>248842</v>
+        <v>227729</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -19627,7 +19597,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>104286</v>
+        <v>177817</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -19645,7 +19615,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>147298</v>
+        <v>221633</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -19663,7 +19633,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>137469</v>
+        <v>75842</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -19681,7 +19651,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>173711</v>
+        <v>70936</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -19699,7 +19669,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>188784</v>
+        <v>86007</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -19717,7 +19687,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>143128</v>
+        <v>153489</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -19735,7 +19705,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>147393</v>
+        <v>87033</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -19753,7 +19723,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>100187</v>
+        <v>203239</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -19771,7 +19741,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>69539</v>
+        <v>215207</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -19789,7 +19759,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>207669</v>
+        <v>108765</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -19807,7 +19777,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>157169</v>
+        <v>95669</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -19825,7 +19795,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>55507</v>
+        <v>98406</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -19843,7 +19813,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>102636</v>
+        <v>197303</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -19861,7 +19831,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>202686</v>
+        <v>231702</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -19879,7 +19849,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>71058</v>
+        <v>177912</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -19897,7 +19867,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>207966</v>
+        <v>42338</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -19915,7 +19885,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>147509</v>
+        <v>188418</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -19933,7 +19903,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>143275</v>
+        <v>127662</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -19951,7 +19921,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>100736</v>
+        <v>238268</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -19969,7 +19939,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>94913</v>
+        <v>118287</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -19987,7 +19957,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>191011</v>
+        <v>113079</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -20005,7 +19975,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>48026</v>
+        <v>81303</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -20023,7 +19993,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>91093</v>
+        <v>211757</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -20041,7 +20011,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>51053</v>
+        <v>154979</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -20059,7 +20029,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>147273</v>
+        <v>59684</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -20077,7 +20047,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>38816</v>
+        <v>101553</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -20095,7 +20065,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>48621</v>
+        <v>246879</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -20113,7 +20083,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>76800</v>
+        <v>70808</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -20131,7 +20101,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>199570</v>
+        <v>228258</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -20149,7 +20119,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>201278</v>
+        <v>120828</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -20167,7 +20137,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>173340</v>
+        <v>215259</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -20185,7 +20155,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>187937</v>
+        <v>183748</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -20203,7 +20173,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>232580</v>
+        <v>78635</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -20221,7 +20191,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>200718</v>
+        <v>153630</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -20239,7 +20209,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>203716</v>
+        <v>207243</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -20257,7 +20227,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>86234</v>
+        <v>85964</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -20275,7 +20245,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>98645</v>
+        <v>61714</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -20293,7 +20263,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>100670</v>
+        <v>208840</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -20311,7 +20281,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>167100</v>
+        <v>247332</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -20329,7 +20299,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>121501</v>
+        <v>221218</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -20347,7 +20317,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E68" ca="1" si="1">RANDBETWEEN(35000,250000)</f>
-        <v>158874</v>
+        <v>141278</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -20365,7 +20335,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>97447</v>
+        <v>73126</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -20383,7 +20353,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>248690</v>
+        <v>166385</v>
       </c>
     </row>
   </sheetData>
